--- a/raw/population/timeline.xlsx
+++ b/raw/population/timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/balint_sawyer_epa_gov/Documents/Profile/Documents/Sawyer Balint/RStudio/wickford_cores/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/balint_sawyer_epa_gov/Documents/Profile/Documents/Sawyer Balint/RStudio/wickford_cores/raw/population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{9975155A-C2FB-470F-B96F-AA28FB3680A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB250381-9D5B-4378-BA07-2741063C7F34}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{9975155A-C2FB-470F-B96F-AA28FB3680A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73992BE1-1B33-4AFA-B7FF-E87B390884B8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F60997B4-DC4C-477E-85F8-B8CB2F889D12}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>RI restrictions on P in detergents</t>
+  </si>
+  <si>
+    <t>position</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A459183C-A2A8-469E-A97F-4C6FE06C7050}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,7 +463,7 @@
     <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,8 +473,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1815</v>
       </c>
@@ -481,8 +487,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1875</v>
       </c>
@@ -492,8 +501,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1897</v>
       </c>
@@ -503,8 +515,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1899</v>
       </c>
@@ -514,8 +529,11 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1904</v>
       </c>
@@ -525,8 +543,11 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1905</v>
       </c>
@@ -536,8 +557,11 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1918</v>
       </c>
@@ -547,8 +571,11 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1930</v>
       </c>
@@ -558,8 +585,11 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1939</v>
       </c>
@@ -569,8 +599,11 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1945</v>
       </c>
@@ -580,8 +613,11 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1971</v>
       </c>
@@ -591,8 +627,11 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1975</v>
       </c>
@@ -602,8 +641,11 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1988</v>
       </c>
@@ -613,8 +655,11 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1995</v>
       </c>
@@ -624,8 +669,11 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1998</v>
       </c>
@@ -634,6 +682,9 @@
       </c>
       <c r="C16" t="s">
         <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/raw/population/timeline.xlsx
+++ b/raw/population/timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/balint_sawyer_epa_gov/Documents/Profile/Documents/Sawyer Balint/RStudio/wickford_cores/raw/population/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sawyer/Documents/GitHub/wickford_cores/raw/population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{9975155A-C2FB-470F-B96F-AA28FB3680A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73992BE1-1B33-4AFA-B7FF-E87B390884B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDC227-9BA5-4345-B8E6-8EC93F784BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F60997B4-DC4C-477E-85F8-B8CB2F889D12}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{F60997B4-DC4C-477E-85F8-B8CB2F889D12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -45,18 +45,9 @@
     <t>type</t>
   </si>
   <si>
-    <t>Filling of AC channel</t>
-  </si>
-  <si>
-    <t>Physical Modification</t>
-  </si>
-  <si>
     <t>Oysters reported in AC</t>
   </si>
   <si>
-    <t>Ecology</t>
-  </si>
-  <si>
     <t>Railway jetty is constructed</t>
   </si>
   <si>
@@ -72,12 +63,6 @@
     <t>State police reported dumping sewage into AC</t>
   </si>
   <si>
-    <t>Nutrient Cycling</t>
-  </si>
-  <si>
-    <t>Municipal water established in Wickford</t>
-  </si>
-  <si>
     <t>State police building relocated</t>
   </si>
   <si>
@@ -100,6 +85,48 @@
   </si>
   <si>
     <t>position</t>
+  </si>
+  <si>
+    <t>Secondary literature</t>
+  </si>
+  <si>
+    <t>Newspaper</t>
+  </si>
+  <si>
+    <t>Primary literature</t>
+  </si>
+  <si>
+    <t>AC inlet constrained for bridge construction</t>
+  </si>
+  <si>
+    <t>Residential buildings constructed along AC</t>
+  </si>
+  <si>
+    <t>Farmland plotted into residential lots</t>
+  </si>
+  <si>
+    <t>Oyster industry established in Wickford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurricane of 1938 </t>
+  </si>
+  <si>
+    <t>Shipyard constructed on shore of AC</t>
+  </si>
+  <si>
+    <t>Farming established along western shore of AC</t>
+  </si>
+  <si>
+    <t>Road constructed near AC</t>
+  </si>
+  <si>
+    <t>Municipal water established</t>
+  </si>
+  <si>
+    <t>Municipal sewer established</t>
+  </si>
+  <si>
+    <t>Library connected to sewer</t>
   </si>
 </sst>
 </file>
@@ -451,19 +478,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A459183C-A2A8-469E-A97F-4C6FE06C7050}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,217 +501,343 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1703</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1710</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1727</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1728</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1795</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1815</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1875</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1888</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1897</v>
+      </c>
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1899</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1875</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1904</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1897</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1905</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1899</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1918</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1904</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1905</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1918</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1930</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>1939</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1945</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1971</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>1975</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1988</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>1930</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1938</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1939</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1945</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1971</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1975</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1988</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1995</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>1998</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
         <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2018</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
